--- a/resources/files/Datos Facturas.xlsx
+++ b/resources/files/Datos Facturas.xlsx
@@ -1016,7 +1016,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Nombre proveedor</t>
+          <t>nombre_emisor</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAMSUNG SDS AMERICA, INC.</t>
+          <t>SAMSUNG SDS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>C.H. Robinson</t>
+          <t>C.H. Robinson Company, Inc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
